--- a/text_recipe_file - 10 min flip.xlsx
+++ b/text_recipe_file - 10 min flip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B717D05-2532-4AE7-8DC3-6C12EB0DF03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B67D2-D4A5-4DEE-8C78-875FD76FC079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="12">
   <si>
     <t>Pump 1</t>
   </si>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,6 +1747,32 @@
         <v>51</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
